--- a/tables/table_12.xlsx
+++ b/tables/table_12.xlsx
@@ -14,87 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Number of employees, Germany*</t>
+  </si>
+  <si>
+    <t>Users (total)</t>
+  </si>
+  <si>
+    <t>Travel subsidy recipients</t>
+  </si>
+  <si>
+    <t>Regional travel card users</t>
+  </si>
+  <si>
+    <t>Deutsche Bahn travel card users</t>
+  </si>
+  <si>
+    <t>Public transport users (%)</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
+    <t>5,204</t>
+  </si>
+  <si>
+    <t>3,562</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>2,842</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>68.45</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>5,298</t>
+  </si>
+  <si>
+    <t>3,643</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>2,616</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>68.79</t>
+  </si>
+  <si>
     <t>2017</t>
   </si>
   <si>
-    <t>Number of employees, Germany*</t>
-  </si>
-  <si>
-    <t>5,204</t>
-  </si>
-  <si>
-    <t>5,298</t>
-  </si>
-  <si>
     <t>5,549</t>
   </si>
   <si>
-    <t>Users (total)</t>
-  </si>
-  <si>
-    <t>3,562</t>
-  </si>
-  <si>
-    <t>3,643</t>
-  </si>
-  <si>
     <t>3,627</t>
   </si>
   <si>
-    <t>Travel subsidy recipients</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
     <t>471</t>
   </si>
   <si>
-    <t>Regional travel card users</t>
-  </si>
-  <si>
-    <t>2,842</t>
-  </si>
-  <si>
-    <t>2,616</t>
-  </si>
-  <si>
     <t>2,917</t>
   </si>
   <si>
-    <t>Deutsche Bahn travel card users</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>239</t>
-  </si>
-  <si>
-    <t>Public transport users (%)</t>
-  </si>
-  <si>
-    <t>68.45</t>
-  </si>
-  <si>
-    <t>68.79</t>
   </si>
   <si>
     <t>65.36</t>
@@ -455,102 +464,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
